--- a/output-data/metric_23.xlsx
+++ b/output-data/metric_23.xlsx
@@ -48,10 +48,13 @@
     <t>Census Table:</t>
   </si>
   <si>
-    <t>Data for centers is pulled using the Census Bureau's API and is processed by block group. Due to the size of block groups, the only ACS data available is from the 5-year data. Block groups are then "split" for each center using shares of either population, housing units or households. These shares were generated from a parcelization process that PSRC utilizes using its base-year model parcel inputs and the Office of Financial Management's Small area Estimate Program (SAEP) block data. The processing scripts used to pull, clean and organize the Census data is available at: https://github.com/psrc/centers-monitoring-data-tools/blob/main/monitoring_report_data.R. Please note that the block group splitting process requires data from the PSRC Central database and as such this script will not run outside the PSRC firewall.</t>
+    <t>Notes on Centers Data Processing:</t>
   </si>
   <si>
-    <t>Notes on Centers Data Processing:</t>
+    <t>Data for centers is pulled using the Census Bureau's API and is processed by block group. Due to the size of block groups, the only ACS data available is from the 5-year data. Block groups are then "split" for each center using shares of either population, housing units or households. These shares were generated for PSRC’s Parcel Estimates Program and utilizes PSRC base-year model parcel inputs and the Office of Financial Management's Small area Estimate Program (SAEP) block data. The processing scripts used to pull, clean and organize the Census data is available at: https://github.com/psrc/centers-monitoring-data-tools/blob/main/monitoring_report_data.R. Please note that the block group splitting process requires data from the PSRC Central database and as such this script will not run outside the PSRC firewall.
+The following  should be considered when using the data:
+* Estimates for centers with a smaller population or housing base should be considered less reliable than for centers with larger bases and should be used with caution.
+* When using the data to describe the range of values across centers, it is advisable to avoid using the less reliable estimates to represent the high or low end of any range.</t>
   </si>
   <si>
     <t xml:space="preserve">2010,2022</t>
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -773,9 +776,9 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1"/>
-    <row r="6" ht="20" customHeight="1">
+    <row r="6" ht="40" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -783,9 +786,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="27" customHeight="1">
+    <row r="7" ht="40" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -793,7 +796,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="27" customHeight="1">
+    <row r="8" ht="40" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -801,7 +804,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="27" customHeight="1">
+    <row r="9" ht="40" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -809,7 +812,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="27" customHeight="1">
+    <row r="10" ht="40" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -817,7 +820,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="27" customHeight="1">
+    <row r="11" ht="40" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -825,7 +828,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="27" customHeight="1">
+    <row r="12" ht="40" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -833,7 +836,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="27" customHeight="1">
+    <row r="13" ht="40" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -841,7 +844,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="27" customHeight="1">
+    <row r="14" ht="40" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -849,7 +852,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" ht="27" customHeight="1">
+    <row r="15" ht="40" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
